--- a/2007-2023_ Hesap-Toplamlar/010_ 2016-23 BANKA/ytrm_2023-10_.xlsx
+++ b/2007-2023_ Hesap-Toplamlar/010_ 2016-23 BANKA/ytrm_2023-10_.xlsx
@@ -214,6 +214,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -504,9 +505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>333000</xdr:colOff>
+      <xdr:colOff>332640</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -519,8 +520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4714920" y="190440"/>
-          <a:ext cx="1714680" cy="333000"/>
+          <a:off x="1548720" y="190440"/>
+          <a:ext cx="1714320" cy="332640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -542,17 +543,17 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
